--- a/data-raw/calculation_cost_visually_impaired.xlsx
+++ b/data-raw/calculation_cost_visually_impaired.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE53DB-A336-EA42-80C1-B54D9D44AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5D496-D306-A745-9C9E-BECF8056AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="500" windowWidth="39440" windowHeight="22000" xr2:uid="{FD0EB534-D8A5-7F4D-B937-536B03C781C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FD0EB534-D8A5-7F4D-B937-536B03C781C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Item</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>productivity_disability</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>vi</t>
   </si>
 </sst>
 </file>
@@ -314,10 +323,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +355,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -408,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -416,7 +438,7 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -428,7 +450,7 @@
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -440,7 +462,7 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,16 +474,16 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -471,19 +493,19 @@
     <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,7 +523,7 @@
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -513,7 +535,7 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -521,6 +543,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -838,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF6794-EE34-4D45-909F-53AA53ED897A}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:AD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -856,28 +884,28 @@
     <col min="9" max="9" width="19.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="24"/>
-    <col min="14" max="14" width="18.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" style="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="24"/>
+    <col min="13" max="14" width="10.83203125" style="24"/>
+    <col min="15" max="15" width="18.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,58 +944,61 @@
         <v>72</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -976,89 +1007,95 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="I2" s="6">
-        <f>SUM(I3:I11)</f>
-        <v>3115.4714549586952</v>
+        <f>SUM(I3:I12)</f>
+        <v>3278.3172882920289</v>
       </c>
       <c r="J2" s="6">
-        <f>SUM(J3:J11)</f>
-        <v>6230.9429099173904</v>
+        <f>SUM(J3:J12)</f>
+        <v>6471.3687271295121</v>
       </c>
       <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="L2" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="M2" s="29">
         <f>J3</f>
         <v>95.295690000000008</v>
       </c>
       <c r="N2" s="29">
         <f>J4</f>
-        <v>579.27800000000002</v>
+        <v>325.69166666666666</v>
       </c>
       <c r="O2" s="29">
         <f>J5</f>
-        <v>105.7085</v>
+        <v>579.27800000000002</v>
       </c>
       <c r="P2" s="29">
         <f>J6</f>
-        <v>186.23083030198185</v>
+        <v>105.7085</v>
       </c>
       <c r="Q2" s="29">
         <f>J7</f>
-        <v>121.57738309458219</v>
+        <v>186.23083030198185</v>
       </c>
       <c r="R2" s="29">
         <f>J8</f>
-        <v>2870.7933333333331</v>
+        <v>121.57738309458219</v>
       </c>
       <c r="S2" s="29">
         <f>J9</f>
-        <v>2019.6</v>
+        <v>2870.7933333333331</v>
       </c>
       <c r="T2" s="29">
         <f>J10</f>
-        <v>167.19332373294768</v>
+        <v>2019.6</v>
       </c>
       <c r="U2" s="29">
         <f>J11</f>
-        <v>85.265849454545446</v>
+        <v>167.19332373294768</v>
       </c>
       <c r="V2" s="29">
-        <f>J13</f>
-        <v>15.66</v>
+        <f>J12</f>
+        <v>0</v>
       </c>
       <c r="W2" s="29">
         <f>J14</f>
-        <v>14.195999999999998</v>
+        <v>15.66</v>
       </c>
       <c r="X2" s="29">
         <f>J15</f>
-        <v>2.879</v>
+        <v>14.195999999999998</v>
       </c>
       <c r="Y2" s="29">
         <f>J16</f>
-        <v>847.32853333333333</v>
+        <v>2.879</v>
       </c>
       <c r="Z2" s="29">
         <f>J17</f>
-        <v>141.43866666666668</v>
+        <v>847.32853333333333</v>
       </c>
       <c r="AA2" s="29">
         <f>J18</f>
-        <v>784.93133333333333</v>
+        <v>141.43866666666668</v>
       </c>
       <c r="AB2" s="29">
         <f>J19</f>
+        <v>784.93133333333333</v>
+      </c>
+      <c r="AC2" s="29">
+        <f>J20</f>
         <v>159.58693333333335</v>
-      </c>
-      <c r="AC2" s="29">
-        <f>J22</f>
-        <v>10062.020867460158</v>
       </c>
       <c r="AD2" s="29">
         <f>J23</f>
-        <v>17736.455017147469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+        <v>10062.020867460158</v>
+      </c>
+      <c r="AE2" s="29">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1113,41 +1150,39 @@
       <c r="AB3" s="24"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
-    </row>
-    <row r="4" spans="1:30" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14">
-        <v>697.15</v>
-      </c>
-      <c r="E4" s="14">
-        <v>644</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="AE3" s="24"/>
+    </row>
+    <row r="4" spans="1:31" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10">
+        <v>67.95</v>
+      </c>
+      <c r="E4" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="F4" s="10">
         <f>E4</f>
-        <v>644</v>
-      </c>
-      <c r="G4" s="15">
-        <f>7/120</f>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="H4" s="13">
-        <v>7.71</v>
-      </c>
-      <c r="I4" s="16">
+        <v>137.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>38/120</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="I4" s="10">
         <f>F4*G4*H4</f>
-        <v>289.63900000000001</v>
-      </c>
-      <c r="J4" s="16">
+        <v>162.84583333333333</v>
+      </c>
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>579.27800000000002</v>
+        <v>325.69166666666666</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
@@ -1169,41 +1204,42 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
-    </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10">
-        <v>41.56</v>
-      </c>
-      <c r="E5" s="10">
-        <v>39.89</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="AE4" s="24"/>
+    </row>
+    <row r="5" spans="1:31" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14">
+        <v>697.15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>644</v>
+      </c>
+      <c r="F5" s="14">
         <f>E5</f>
-        <v>39.89</v>
-      </c>
-      <c r="G5" s="11">
-        <f>15/120</f>
-        <v>0.125</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I7" si="1">F5*G5*H5</f>
-        <v>52.85425</v>
-      </c>
-      <c r="J5" s="10">
+        <v>644</v>
+      </c>
+      <c r="G5" s="15">
+        <f>7/120</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7.71</v>
+      </c>
+      <c r="I5" s="16">
+        <f>F5*G5*H5</f>
+        <v>289.63900000000001</v>
+      </c>
+      <c r="J5" s="16">
         <f>I5*2</f>
-        <v>105.7085</v>
+        <v>579.27800000000002</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -1225,10 +1261,11 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
       <c r="AD5" s="24"/>
-    </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="24"/>
+    </row>
+    <row r="6" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1237,26 +1274,29 @@
         <v>11</v>
       </c>
       <c r="D6" s="10">
-        <v>139.9</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>41.56</v>
+      </c>
+      <c r="E6" s="10">
+        <v>39.89</v>
+      </c>
       <c r="F6" s="10">
-        <f>D6*B36*H34</f>
-        <v>161.95140027548211</v>
+        <f>E6</f>
+        <v>39.89</v>
       </c>
       <c r="G6" s="11">
-        <v>9.1700000000000004E-2</v>
+        <f>15/120</f>
+        <v>0.125</v>
       </c>
       <c r="H6" s="8">
-        <v>6.27</v>
+        <v>10.6</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="1"/>
-        <v>93.115415150990927</v>
+        <f t="shared" ref="I6:I8" si="1">F6*G6*H6</f>
+        <v>52.85425</v>
       </c>
       <c r="J6" s="10">
         <f>I6*2</f>
-        <v>186.23083030198185</v>
+        <v>105.7085</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -1278,10 +1318,11 @@
       <c r="AB6" s="24"/>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
-    </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="24"/>
+    </row>
+    <row r="7" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>16</v>
@@ -1290,27 +1331,26 @@
         <v>11</v>
       </c>
       <c r="D7" s="10">
-        <v>70</v>
+        <v>139.9</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <f>D7*B36*H34</f>
-        <v>81.033581267217642</v>
+        <f>D7*B37*H35</f>
+        <v>161.95140027548211</v>
       </c>
       <c r="G7" s="11">
-        <f>7/120</f>
-        <v>5.8333333333333334E-2</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="H7" s="8">
-        <v>12.86</v>
+        <v>6.27</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>60.788691547291094</v>
+        <v>93.115415150990927</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" ref="J7:J11" si="2">I7*2</f>
-        <v>121.57738309458219</v>
+        <f>I7*2</f>
+        <v>186.23083030198185</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -1332,41 +1372,40 @@
       <c r="AB7" s="24"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1510.8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2270</v>
-      </c>
-      <c r="F8" s="16">
-        <f>E8</f>
-        <v>2270</v>
-      </c>
-      <c r="G8" s="17">
-        <f>28/120</f>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="H8" s="13">
-        <v>2.71</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8:I11" si="3">F8*G8*H8</f>
-        <v>1435.3966666666665</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>2870.7933333333331</v>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f>D8*B37*H35</f>
+        <v>81.033581267217642</v>
+      </c>
+      <c r="G8" s="11">
+        <f>7/120</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>12.86</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>60.788691547291094</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J11" si="2">I8*2</f>
+        <v>121.57738309458219</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -1388,10 +1427,11 @@
       <c r="AB8" s="24"/>
       <c r="AC8" s="24"/>
       <c r="AD8" s="24"/>
-    </row>
-    <row r="9" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>17</v>
@@ -1400,29 +1440,29 @@
         <v>13</v>
       </c>
       <c r="D9" s="16">
-        <v>1732.33</v>
+        <v>1510.8</v>
       </c>
       <c r="E9" s="16">
-        <v>1530</v>
+        <v>2270</v>
       </c>
       <c r="F9" s="16">
         <f>E9</f>
-        <v>1530</v>
+        <v>2270</v>
       </c>
       <c r="G9" s="17">
-        <f>45/120</f>
-        <v>0.375</v>
+        <f>28/120</f>
+        <v>0.23333333333333334</v>
       </c>
       <c r="H9" s="13">
-        <v>1.76</v>
+        <v>2.71</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
-        <v>1009.8</v>
+        <f t="shared" ref="I9:I12" si="3">F9*G9*H9</f>
+        <v>1435.3966666666665</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="2"/>
-        <v>2019.6</v>
+        <v>2870.7933333333331</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -1444,10 +1484,11 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
-    </row>
-    <row r="10" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>17</v>
@@ -1456,27 +1497,29 @@
         <v>13</v>
       </c>
       <c r="D10" s="16">
-        <v>82.68</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>1732.33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1530</v>
+      </c>
       <c r="F10" s="16">
-        <f>D10*B36*H34</f>
-        <v>95.712235702479347</v>
+        <f>E10</f>
+        <v>1530</v>
       </c>
       <c r="G10" s="17">
-        <f>47/120</f>
-        <v>0.39166666666666666</v>
+        <f>45/120</f>
+        <v>0.375</v>
       </c>
       <c r="H10" s="13">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="3"/>
-        <v>83.596661866473838</v>
+        <v>1009.8</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="2"/>
-        <v>167.19332373294768</v>
+        <v>2019.6</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -1498,10 +1541,11 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
-    </row>
-    <row r="11" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -1510,27 +1554,27 @@
         <v>13</v>
       </c>
       <c r="D11" s="16">
-        <v>276.20999999999998</v>
+        <v>82.68</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <f>D11*B36*H34</f>
-        <v>319.74693545454545</v>
+        <f>D11*B37*H35</f>
+        <v>95.712235702479347</v>
       </c>
       <c r="G11" s="17">
-        <f>4/120</f>
-        <v>3.3333333333333333E-2</v>
+        <f>47/120</f>
+        <v>0.39166666666666666</v>
       </c>
       <c r="H11" s="13">
-        <v>4</v>
+        <v>2.23</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="3"/>
-        <v>42.632924727272723</v>
+        <v>83.596661866473838</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="2"/>
-        <v>85.265849454545446</v>
+        <v>167.19332373294768</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -1552,119 +1596,119 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
-    </row>
-    <row r="12" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="AE11" s="24"/>
+    </row>
+    <row r="12" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="16">
+        <v>276.20999999999998</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <f>D12*B37*H35</f>
+        <v>319.74693545454545</v>
+      </c>
+      <c r="G12" s="17">
+        <f>4/120</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
+        <v>42.632924727272723</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+    </row>
+    <row r="13" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <f>SUM(J13:J19)</f>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <f>SUM(J14:J20)</f>
         <v>1966.0204666666666</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-    </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+    </row>
+    <row r="14" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>15.66</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="10">
-        <f>F13*G13*H13</f>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="18"/>
+      <c r="I14" s="10">
+        <f>F14*G14*H14</f>
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>15.66</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-    </row>
-    <row r="14" spans="1:30" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="16">
-        <v>15.34</v>
-      </c>
-      <c r="E14" s="16">
-        <v>32.76</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" ref="F14:F19" si="4">E14</f>
-        <v>32.76</v>
-      </c>
-      <c r="G14" s="17">
-        <f>2/120</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>13</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" ref="I14:I15" si="5">F14*G14*H14</f>
-        <v>7.097999999999999</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" ref="J14:J19" si="6">I14*2</f>
-        <v>14.195999999999998</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -1686,41 +1730,42 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
-    </row>
-    <row r="15" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="24"/>
+    </row>
+    <row r="15" spans="1:31" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="16">
-        <v>37.51</v>
+        <v>15.34</v>
       </c>
       <c r="E15" s="16">
-        <v>57.58</v>
+        <v>32.76</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="4"/>
-        <v>57.58</v>
+        <f t="shared" ref="F15:F20" si="4">E15</f>
+        <v>32.76</v>
       </c>
       <c r="G15" s="17">
         <f>2/120</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="H15" s="13">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" si="5"/>
-        <v>1.4395</v>
+        <f t="shared" ref="I15:I16" si="5">F15*G15*H15</f>
+        <v>7.097999999999999</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="6"/>
-        <v>2.879</v>
+        <f t="shared" ref="J15:J20" si="6">I15*2</f>
+        <v>14.195999999999998</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -1742,41 +1787,42 @@
       <c r="AB15" s="24"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
-    </row>
-    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10">
-        <v>12.29</v>
-      </c>
-      <c r="E16" s="10">
-        <v>18.8</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>37.51</v>
+      </c>
+      <c r="E16" s="16">
+        <v>57.58</v>
+      </c>
+      <c r="F16" s="16">
         <f t="shared" si="4"/>
-        <v>18.8</v>
-      </c>
-      <c r="G16" s="11">
-        <f>44/120</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="H16" s="8">
-        <v>61.46</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" ref="I16:I19" si="7">F16*G16*H16</f>
-        <v>423.66426666666666</v>
-      </c>
-      <c r="J16" s="10">
+        <v>57.58</v>
+      </c>
+      <c r="G16" s="17">
+        <f>2/120</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4395</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="6"/>
-        <v>847.32853333333333</v>
+        <v>2.879</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -1798,10 +1844,11 @@
       <c r="AB16" s="24"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
-    </row>
-    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="17" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>21</v>
@@ -1820,19 +1867,19 @@
         <v>18.8</v>
       </c>
       <c r="G17" s="11">
-        <f>10/120</f>
-        <v>8.3333333333333329E-2</v>
+        <f>44/120</f>
+        <v>0.36666666666666664</v>
       </c>
       <c r="H17" s="8">
-        <v>45.14</v>
+        <v>61.46</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="7"/>
-        <v>70.719333333333338</v>
+        <f t="shared" ref="I17:I20" si="7">F17*G17*H17</f>
+        <v>423.66426666666666</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>141.43866666666668</v>
+        <v>847.32853333333333</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -1854,10 +1901,11 @@
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
-    </row>
-    <row r="18" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
@@ -1876,19 +1924,19 @@
         <v>18.8</v>
       </c>
       <c r="G18" s="11">
-        <f>47/120</f>
-        <v>0.39166666666666666</v>
+        <f>10/120</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H18" s="8">
-        <v>53.3</v>
+        <v>45.14</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="7"/>
-        <v>392.46566666666666</v>
+        <v>70.719333333333338</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="6"/>
-        <v>784.93133333333333</v>
+        <v>141.43866666666668</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -1910,10 +1958,11 @@
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24"/>
-    </row>
-    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
@@ -1932,19 +1981,19 @@
         <v>18.8</v>
       </c>
       <c r="G19" s="11">
-        <f>34/120</f>
-        <v>0.28333333333333333</v>
+        <f>47/120</f>
+        <v>0.39166666666666666</v>
       </c>
       <c r="H19" s="8">
-        <v>14.98</v>
+        <v>53.3</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" si="7"/>
-        <v>79.793466666666674</v>
+        <v>392.46566666666666</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="6"/>
-        <v>159.58693333333335</v>
+        <v>784.93133333333333</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -1966,38 +2015,45 @@
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
-    </row>
-    <row r="20" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="AE19" s="24"/>
+    </row>
+    <row r="20" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="E20" s="10">
+        <v>18.8</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="4"/>
+        <v>18.8</v>
+      </c>
+      <c r="G20" s="11">
+        <f>34/120</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="H20" s="8">
+        <v>14.98</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="7"/>
+        <v>79.793466666666674</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="6"/>
+        <v>159.58693333333335</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -2016,71 +2072,96 @@
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
-    </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
-        <f>SUM(J22:J23)</f>
-        <v>27798.475884607629</v>
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-    </row>
-    <row r="22" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+    </row>
+    <row r="22" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <f>SUM(J23:J24)</f>
+        <v>10062.020867460158</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+    </row>
+    <row r="23" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="21">
-        <v>99.14</v>
-      </c>
-      <c r="E22" s="21">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="F22" s="23">
-        <f>3126.72/D22</f>
-        <v>31.538430502319951</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21">
-        <f>F22*8*E22</f>
-        <v>10062.020867460158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -2095,172 +2176,199 @@
         <v>39.880000000000003</v>
       </c>
       <c r="F23" s="23">
-        <f>5511.51/D23</f>
-        <v>55.593201533185393</v>
-      </c>
-      <c r="G23" s="22">
-        <v>115</v>
-      </c>
+        <f>3126.72/D23</f>
+        <v>31.538430502319951</v>
+      </c>
+      <c r="G23" s="22"/>
       <c r="H23" s="23"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21">
         <f>F23*8*E23</f>
-        <v>17736.455017147469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H24" s="27"/>
-    </row>
-    <row r="26" spans="1:30" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+        <v>10062.020867460158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="21">
+        <v>99.14</v>
+      </c>
+      <c r="E24" s="21">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="F24" s="23">
+        <f>5511.51/D24</f>
+        <v>55.593201533185393</v>
+      </c>
+      <c r="G24" s="22">
+        <v>115</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H25" s="27"/>
+    </row>
+    <row r="27" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="D27" s="39"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="29" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="D31" s="31" t="s">
+      <c r="B32" s="30"/>
+      <c r="D32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B33" s="34">
         <v>1.2649999999999999</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D33" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="34">
-        <v>1.234</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="34">
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
-        <v>56</v>
+      <c r="H33" s="36">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="34">
-        <v>1.222</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>49</v>
+        <v>1.234</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
       <c r="H34" s="34">
-        <f>H32/H33</f>
-        <v>0.9559228650137741</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="34">
-        <v>1.214</v>
+        <v>1.222</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="34">
+        <f>H33/H34</f>
+        <v>0.9559228650137741</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="38">
-        <v>1.2110000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="34">
+        <v>1.214</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="34">
-        <v>1.194</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="38">
+        <v>1.2110000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="34">
-        <v>1.1739999999999999</v>
+        <v>1.194</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="34">
-        <v>1.1439999999999999</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="34">
-        <v>1.1299999999999999</v>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B42" s="34">
         <v>1.1000000000000001</v>
       </c>
     </row>
